--- a/src/assets/BroadExample.xlsx
+++ b/src/assets/BroadExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\admin_vsfintech\adminpanel\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189FBA14-A1E4-44A0-B15C-96AD64557E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54158B7-154A-4A6F-9117-33F5C2224E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Stocks</t>
   </si>
@@ -28,65 +28,71 @@
     <t>May</t>
   </si>
   <si>
-    <t>Nifty 50</t>
-  </si>
-  <si>
-    <t>Nifty Next 50</t>
-  </si>
-  <si>
-    <t>Nifty 100</t>
-  </si>
-  <si>
-    <t>Nifty 200</t>
-  </si>
-  <si>
-    <t>NIFTY TOTAL MKT</t>
-  </si>
-  <si>
-    <t>Nifty 500</t>
-  </si>
-  <si>
-    <t>NIFTY500 MULTICAP</t>
-  </si>
-  <si>
-    <t>NIFTY MIDCAP 150</t>
-  </si>
-  <si>
-    <t>Nifty Midcap 50</t>
-  </si>
-  <si>
-    <t>NIFTY MID SELECT</t>
-  </si>
-  <si>
-    <t>NIFTY MIDCAP 100</t>
-  </si>
-  <si>
-    <t>NIFTY SMALLCAP 250</t>
-  </si>
-  <si>
-    <t>NIFTY SMALLCAP 50</t>
-  </si>
-  <si>
-    <t>NIFTY SMLCAP 100</t>
-  </si>
-  <si>
-    <t>NIFTY MICROCAP250</t>
-  </si>
-  <si>
-    <t>NIFTY MIDSML 400</t>
-  </si>
-  <si>
     <t>&lt;= Uploading month name</t>
   </si>
   <si>
     <t>Monthly average Data</t>
+  </si>
+  <si>
+    <t>NFT50</t>
+  </si>
+  <si>
+    <t>NFTN50</t>
+  </si>
+  <si>
+    <t>NFT100</t>
+  </si>
+  <si>
+    <t>NFT200</t>
+  </si>
+  <si>
+    <t>NFTTTLMAR</t>
+  </si>
+  <si>
+    <t>NFT500</t>
+  </si>
+  <si>
+    <t>NFT500MC50:25:25</t>
+  </si>
+  <si>
+    <t>NFT500LGMSEQLCAPWTD</t>
+  </si>
+  <si>
+    <t>NFTMC150</t>
+  </si>
+  <si>
+    <t>NFTMC50</t>
+  </si>
+  <si>
+    <t>NFTMCSEL</t>
+  </si>
+  <si>
+    <t>NFTMC100</t>
+  </si>
+  <si>
+    <t>NFTSC250</t>
+  </si>
+  <si>
+    <t>NFTSC50</t>
+  </si>
+  <si>
+    <t>NFTFSC100</t>
+  </si>
+  <si>
+    <t>NFTMC250</t>
+  </si>
+  <si>
+    <t>NFTLMC250</t>
+  </si>
+  <si>
+    <t>NFTMSC400</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -109,6 +115,13 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -118,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -141,14 +154,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,10 +396,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -379,165 +408,182 @@
     <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B16" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.39</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.17</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="B17" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="4">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="C17" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/assets/BroadExample.xlsx
+++ b/src/assets/BroadExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\admin_vsfintech\adminpanel\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54158B7-154A-4A6F-9117-33F5C2224E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC056C6-D1AE-4B6E-92F9-149957DA896F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,9 +52,6 @@
     <t>NFT500</t>
   </si>
   <si>
-    <t>NFT500MC50:25:25</t>
-  </si>
-  <si>
     <t>NFT500LGMSEQLCAPWTD</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>NFTMSC400</t>
+  </si>
+  <si>
+    <t>NFT500MC50_25_25</t>
   </si>
 </sst>
 </file>
@@ -399,12 +399,12 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -477,7 +477,7 @@
     </row>
     <row r="8" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B8" s="4">
         <v>0.36</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="9" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="4">
         <v>0.21</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="10" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4">
         <v>0.32</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="11" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4">
         <v>0.76</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="12" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4">
         <v>0.48</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="13" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="4">
         <v>0.75</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="14" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="4">
         <v>0.28999999999999998</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="15" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4">
         <v>0.42</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="16" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4">
         <v>0.27</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="17" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>0.22</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="4">
         <v>0.75</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="4">
         <v>0.28999999999999998</v>
